--- a/financial_folder/financial_statement_2019-2020.xlsx
+++ b/financial_folder/financial_statement_2019-2020.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t xml:space="preserve">ΕΠΩΝΥΜΙΑ ΕΤΑΙΡΕΙΑΣ</t>
+    <t xml:space="preserve">Company name</t>
   </si>
   <si>
     <t xml:space="preserve">ΑΝΩΝΥΜΗ Α.Ε.</t>
   </si>
   <si>
-    <t xml:space="preserve">ΠΕΡΙΟΔΟΣ ΟΙΚΟΝΟΜΙΚΗΣ ΑΝΑΦΟΡΑΣ</t>
+    <t xml:space="preserve">Financial report period</t>
   </si>
   <si>
     <t xml:space="preserve">2019-2020</t>
@@ -43,64 +43,64 @@
     <t xml:space="preserve">ΤΙΜΕΣ 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">ΚΥΚΛΟΦΟΡΟΥΝ ΕΝΕΡΓΗΤΙΚΟ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΠΑΓΙΟ ΕΝΕΡΓΗΤΙΚΟ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΤΑΜΕΙΟ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΒΡΑΧΥΠΡΟΘΕΣΜΕΣ ΥΠΟΧΡΕΩΣΕΙΣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΔΑΝΕΙΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΠΩΛΗΣΕΙΣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΚΟΣΤΟΣ ΠΩΛΗΣΕΩΝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΜΙΚΤΟΣ ΚΕΡΔΟΣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΚΑΘΑΡΟ ΚΕΡΔΟΣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΚΕΦΑΛΑΙΟ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΕΞΟΔΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΦΟΡΟΙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΡΕΥΣΤΟΤΗΤΑ (liquidity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΑΠΟΔΟΤΙΚΟΤΗΤΑ (efficiency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΚΕΦΑΛΑΙΟ ΚΙΝΗΣΗΣ (capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΑΠΟΔΟΤΙΚΟΤΗΤΑ ΚΕΦΑΛΑΙΟΥ (return on capital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΔΡΑΣΤΗΡΙΟΤΗΤΑ (activity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΔΑΝΕΙΑΚΗ ΕΠΙΒΑΡΥΝΣΗ (loan burden)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΑΠΟΔΟΤΙΚΟΤΗΤΑ ΠΑΓΕΙΩΝ (fixed asset efficiency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΤΑΜΕΙΑΚΗ ΡΕΥΣΤΟΤΗΤΑ (cash liquidity)</t>
+    <t xml:space="preserve">Current Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Term Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effeciency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return On Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt Burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Assets Effeciency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Liquidity</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,7 +266,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
   </cols>
   <sheetData>
